--- a/branches/ARVTreatment--FIG-58/CodeSystem-cs-art-change-type.xlsx
+++ b/branches/ARVTreatment--FIG-58/CodeSystem-cs-art-change-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:52:43+00:00</t>
+    <t>2023-02-28T14:54:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
